--- a/500all/speech_level/speeches_CHRG-114hhrg99553.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99553.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,36 +52,24 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order. We have an eight-vote series that will require the subcommittee to recess for about 45 minutes as soon as votes are called. I understand that Assistant Secretary Bersin has a hard stop at 4 o'clock, so we will return immediately after votes to conclude the opening portion of the hearing and to move to a classified setting. Following testimonies and members' questions, we will conclude there and we will conclude our time today.    So I am going to, in the essence of time, skip over my opening statement, but I want to start off with just saying a couple of things. First off, I am deeply saddened by the loss of life in Brussels today at the hands of evil men. I want to dedicate today's hearing to the victims of today's attacks and their families. I led my first congressional delegation trip to Brussels in 2014 to look exactly at foreign fighter flow, foreign fighter threat, and the ways that the U.S. and our European allies could better cooperate on homeland security issues. And only a day before my visit, an ISIS foreign fighter had returned to Brussels and shot up a Jewish museum killing four people before he tried to flee to Africa. So today's depraved acts in Brussels, following the Paris attack, demonstrate again that evil and evil men's intentions continue to rip apart the fabric of free Western societies through acts of terror and fear.    It brings to mind Winston Churchill's words. Let us learn our lessons. Never, never, never believe any war will be smooth and easy. Always remember, however, as sure as you are that you can easily win, that there would not be a war if the other man did not think he also had a chance. So we must show enemies that they have no chance of victory and we do that, in part, through strong defenses and secure borders.    So I want to start the hearing. We are going to jump right in and submit our opening statements for the record. The ranking member agrees with me, so I would just go ahead and recognize Mr. Gonzalez for his opening statement. You are recognized for 5 minutes.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gonzalez. Thank you, Mr. Chairman, Mr. Ranking Member, and distinguished members of the committee. Thank you for the opportunity to testify before you on border security and vulnerabilities in Latin America and the Caribbean. It is an honor to be here with my colleague and friends from the Department of Homeland Security.    First, just to summarize my oral remarks, I wanted to first thank this committee in my capacity as Deputy Assistant Secretary of State for Central America and the Caribbean for its bipartisan support for our strategy in Central America. You allowed us to increase funding for Fiscal Year 2015 and supported the President's Fiscal Year 2016 request for $750 million, providing us with the tools to help these governments make a real difference on the ground. So thank you and I look forward to continue working with you on this.    Now effective border management in Latin America and the Caribbean is vital to our economic prosperity and national security. Throughout the hemisphere, we are working with governments to eliminate trade barriers, integrate electricity grids and energy markets, connect national infrastructures, and cement commercial relationships. As evidence, I offer that our trillion dollar trade relationship and over 3 million American jobs, supported by our economic relationship with Canada and Mexico, demonstrate what is possible when governments collaborate actively.    At the same time that we are using our border cooperation to promote prosperity, we are equally determined to use them to safeguard the homeland and to ensure safe, legal, and orderly migration to the United States. Border security was a focus of the recent Canada state visit. We always share travel information with Canada, including our respective no-fly lists. And the President and Prime Minister Trudeau used their meeting to discuss what more we can do to secure our borders while actively promoting commerce.    We are also working with Mexico on border enforcement at both its northern and southern border to regulate migration, combat smuggling, and target narco-traffickers and our counterterrorism cooperation with Mexico is excellent.    During his fourth visit to Mexico under this administration, Vice President Biden discussed border security with President Pena Nieto as he chaired at the same time the third meeting of the U.S.-Mexico High Level Economic Dialogue.    Border security has also been at the front and center in the Vice President's active engagement on Central America since 2014. During his latest meeting with Northern Triangle leaders here in Washington on February 24th, the three Presidents reaffirmed their commitment to continue awareness campaigns about the risks of undocumented migration, deepening the fight against human smuggling and trafficking, continued regional border security coordination, the strengthening of task forces and development of joint intelligence and border security facilities, and facilitate with the return, repatriation, and especially the reintegration of migrants who do not qualify for humanitarian protection in the United States.    Our efforts in the Caribbean are aimed at combating the drug trade and other transnational criminal threats and work in lock step with the U.S. Coast Guard, the Department of Defense, and Department of Homeland Security to support regional maritime and aerial domain awareness by improving radar coverage and information sharing between partner nations. Caribbean governments are using U.S.-provided equipment and training to identify threats and carry out interdiction operations. And the U.N. Office on Drugs and Crime Container Control Programme is establishing dedicated container profiling units to improve port security.    In South America, the Tri-Border Area of Brazil, Argentina, and Paraguay is a focus for regional law enforcement efforts, as you know from your recent congressional delegation. Governments in the region have long been concerned about arms and drug smuggling, document fraud, money laundering, trafficking in persons, and the manufacture and movement of contraband goods through the Tri-Border Area. We are working with all three governments on their efforts to improve border management and combat smuggling. We brought justice and police officials from Paraguay to regional conferences on money laundering conducted with the Department of Justice.    Mr. Chairman, to conclude, throughout our efforts in the hemisphere, U.S. strategy development and program design has been an active exercise of coordination between the Departments of State, Homeland Security, Justice, Commerce, USAID, and others. Indeed, funding from the Department of State and USAID supports a lot of the work of our partner agencies. At the same time, the expertise and experience of our DHS colleagues, as well as others in the departments and agencies, have helped us refine our approach and we continue to look for ways to maximize our coordination.    And I will close where I began, Mr. Chairman. The U.S. Congress is a vital partner to the administration and we look forward to engaging with you on our discussion today on border security and vulnerabilities in Latin America and the Caribbean. Thank you for holding this important hearing and I look forward to engaging in the discussion.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you so much.    Secretary Bersin.</t>
   </si>
   <si>
-    <t>Bersin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bersin. Mr. Chairman, Ranking Member Sires, Mr. Yoho, thank you for the opportunity to appear before you once again, particularly in the company of my distinguished colleagues, Misters Gonzalez and Kubiak.    I wanted to express our gratitude, certainly mine, for the comments you made with regard to the events in Brussels. I think in retrospect it will be seen in terms of European security and the effect on its borders as a game changer, building on what happened in Paris in January.    I was at a meeting of the European Institute today in which people were reacting to the events in Brussels and I thought it would be useful in the context of the hearing that you and your staff have structured, to offer some comments that I offered there. Because in fact, Europe is in the midst of a confluence of migration, refugees, asylum seekers, and terrorists. And in fact, it has set the European market on its back in the eurozone and the Schengen zone and it is placed them at great risk.    And in looking at the way in which the European nations have reacted to the crisis that they face with respect to border security, we begin to see them shutting down their individual borders, renouncing the Schengen zone, and generally hunkering down in ways that were reminiscent of the way in which we handled border security in the immediate aftermath of 9/11 when we shut down our airports. We shut down our seaports. We actually backed traffic south into Mexico and north into Canada by 10 to 20 miles as we looked at every trunk and we processed every passenger.    And I thought, reflected, for our European colleagues today how different our border security looks. To be sure, we are not seamless and we are not perfect and we are in a mode of continuous improvement as the discussion in the SCIF will undoubtedly focus on some of the issues that we should not take up in public session. But think about the difference in the way in which we handle border security from 15 years ago.    We used to see borders as lines on a map, the line that separated us from Mexico or Canada. And in fact, we now come to see because, in fact, we have learned that homeland security is intrinsically transnational. That is to say there is hardly an event that affects us inside our homeland that does not have a cause or effect that originates outside the homeland.    So we start to look at border security in terms of not just in lines, but in flows. And in the global world that makes a lot of sense in terms of the constant movement of migrants, capital labor, electrons, goods, and people, constantly back and forth across the line.    So we have come to see the fact that our ports of entry, the 327 airports, seaports, and land ports, are not the first line of defense, but rather they are the last line of defense. And what we have to do is secure the flow of goods and people toward the border lines, toward our homeland, as far away from them as possible, and as early in time before the arrival at the border. And we have implemented that as the testimony of my colleagues and I today will again document, but with which the chairman and Ranking Member Yoho are familiar.    The second thing that was pointed out, so that, in fact, don't move away from your--don't just hunker down at your border line, but manage the flows. And think our testimony will show that we do that.    Second is don't fragment your border agencies. I know that in the 1990s there were at each of our ports of entry there were three separate port managers, one from Treasury, for Customs; one for Justice, for Immigration; and one from Agriculture for agricultural inspection. As a result of the creation of DHS, we have actually created an integrated set of missions that will improve over time as the Defense Department has to actually perform a single border security function effectively.    Third, we recognize that you cannot stop everything. We are looking for a needle in a haystack, because in fact, 97, 98 or more percent of the passing of people and goods are perfectly lawful and legitimate. And when we look for the needle in the haystack, we have developed means and methods of doing it, but we recognize that it is based on risk management and making assessments and managing our borders, not seamlessly, but with the data that we have and the intelligence that we can garner.    Lastly, we have learned that we cannot do this alone, that we have to do it in partnership not only inside the government, among the agencies of the United States Government, but also with foreign partners. And a lot of our border security today with regard to migration, as well as drugs, as well as intellectual property protection, as well as counterterrorist activity depends on the partnerships that we have created with our foreign partners.    As Mr. Gonzalez indicated, we have just embarked on a massive effort in partnership with Central America. It will not solve the problem overnight. These problems are in the making over generations, but we have actually taken, and I take it during the course of the hearing, we can explore some of the departures that bode well and work well than the situation we have seen.    With regard to the Caribbean, we have similar efforts of partnership and I hope to be able to take those up, Mr. Chairman, in the course of the questions and answers.    So in conclusion, the challenge of our times is that the future is not what it used to be, as the French poet said. But we have changed the way in which we manage the border and I look forward to answering your questions so we can explore where there have been improvements and where there remains work to be done. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, sir.    Mr. Kubiak.</t>
   </si>
   <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kubiak. In the immediate wake of the tragic attacks today in Belgium, I am strengthened by the fact that our international law enforcement collaboration and our effectiveness grows stronger every day. In my more than 20 years as a Federal law enforcement officer, ICE has never had greater capability to partner internationally to protect our nation.    Over 400 ICE personnel are assigned to 62 offices in 46 countries and each year we augment that staff with hundreds of agents and analysts on temporary detail. As today's attacks demonstrate, the threat continues to evolve and challenge our law enforcement response, but I am confident our strong global partnerships build our capability to identify criminals, terrorists, and those networks that support their actions.    As the goal of the hearing is today to address Western Hemisphere affairs, I will focus specifically on that area, but the accomplishments and programs that will be discussed today are representative of our efforts globally.    In the Western Hemisphere, ICE has 23 offices in 9 countries, staffed by about 111 people who work on capacity building and exchange of best practices with our law enforcement counterparts and then operationalize those capabilities through joint investigations covering a full range of ICE's broad investigative authorities and work with our partner nations to repatriate their nationals.    We are, at our core, a border law enforcement agency, and partner with our foreign law enforcement counterparts, Immigration and Customs officers around the world, to investigate transnational criminal organizations operating globally. Thanks to the additional appropriated funds from Congress in Fiscal Year 2015 and continued funding support from the Department of State and the Department of Defense, we have expanded critically important programs like the Transnational Criminal Investigative Units, our Biometric Identification Transnational Migration Alert Program, and the Trade Transparency Units.    We continue to build our capacity and the capacity of our host country counterparts through training programs such as our Cross Border Financial Investigations Program, and our Strategic Trade Control Workshops. We put these programs and training to work through ambitious international and multilateral whole of U.S. Government joint investigative enforcement operations such as Operation Citadel.    ICE's Transnational Criminal Investigative Units investigate all forms of illicit trade, travel, and finance. TCIUs are comprised of foreign law enforcement officials, customs officers, immigration officers, and prosecutors, who undergo a strict vetting process and complete a prerequisite 3-week training course at our Federal law enforcement training center in Glynco, Georgia. Once trained, the TCIU members work collaboratively with our attache personnel to address significant joint law enforcement threats throughout the hemisphere. Through this program, ICE attaches share law enforcement intelligence, conduct joint investigations, and assist in prosecutions of transnational criminal organizations both in the host country and in the United States.    TCIUs are currently operational in nine countries and comprise more than 250 vetted foreign trained law enforcement officers who in 2015 alone, Fiscal Year 2015 alone, disrupted and dismantled criminal organizations through the arrest of almost 700 suspects, the seizure of nearly 17,000 pounds of cocaine, the seizure of more than $6.7 million in illicit cash, and $13 million worth of counterfeit merchandise, not to mention numerous firearms, ammunition, vehicles, and vessels.    One of ICE's highest priorities in the region is investigating human smuggling and trafficking. The Human Smuggling Cell serves as the U.S. Government's coordination center for all human smuggling investigations and through it ICE and CBP together harness DHS's unique access to immigration border and financial data to advance efforts to counter these organizations. The cell provides intelligence coordination and supports U.S. and foreign investigations to more effectively address the specific regional threat.    For the last 4 consecutive years, as an example, ICE led Operation Citadel, a regional, multilateral, and multi-agency effort to address our transnational criminal organization operations, but with the specific focus on human smuggling. This operation coordinated attaches and TCIUs in the region and combined partner national capacity building, training, and real-time intelligence, interdiction and investigative operations at international seaports, airports, land borders, and in the interior of those countries.    In Fiscal Year 2015, Operation Citadel dismantled several large transnational human smuggling organizations. Most significantly, one investigation coordinated collaborative investigations at the same time in Honduras, El Salvador, Guatemala, Mexico, and the United States, dismantling a prolific transnational criminal organization operating throughout Central America and throughout the hemisphere. As a result, 14 separate human smuggling routes were identified and disrupted, including routes used by smugglers to move third country nationals from the Eastern Hemisphere through the Western Hemisphere and into the United States across the southwest border. In total, Citadel's 2015 results included 210 arrests, the recovery of 51 unaccompanied minors, the seizure of $2.1 million in currency, over 2100 biometric collections or enrollments and the initiation of 68 new and on-going investigations.    There is much work still to do and the need to continue to strengthen international partnerships through training and joint operations, but ICE is fully engaged in addressing current and future threats. I am confident that we will continue to build upon this momentum and generate additional considerable operational achievements as we move forward. Thank you for the opportunity to answer your questions.</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Chairman. I just want to say the chairman put together a great codel, which was very informative for me. We certainly learned a lot about especially border crossing in some of these areas that have nothing. They just go back and forth without any kind of scrutiny.    Can you define for me or discuss how the U.S. Government defines special interest aliens? How do you do that?</t>
   </si>
   <si>
@@ -146,9 +131,6 @@
   </si>
   <si>
     <t>412525</t>
-  </si>
-  <si>
-    <t>Ted S. Yoho</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman, and I appreciate all of you being here. Mr. Bersin, I appreciate the briefing before we went down to South America. It was a great trip. And I thought it was interesting when we were talking about the border security there in the tri-border area how they were telling us how lax it was, but when we met with some of the dignitaries, they said oh, no, we have got good border security. I saw a disconnect there.    I think we are all in agreement that border security is a national security issue. That is something we all take seriously. Obviously, you do, but yet we see the lapses, and I appreciate the work that you guys have done from the 1990s to today, but it is a different game today. Back then, we were worried more about people coming into this country wanting jobs, wanting a better life, wanting opportunity and the drug trafficking. Today, we have got people that want to do us harm and it is like a cake. You only need one drop of kerosene to mess up the whole batter and we can't afford any of that. And certainly we have seen that in what is going on in the European Union with Brussels, with Paris, with these attacks that like you said, is going to shut down our whole economy. It is their 9/11. Can we afford another one? Or do we want another one of those here in the United States?    And you are talking about the control. Before 9/11, we were pretty lax. 9/11 taught us a lesson. Now we have got TSA. Now we are doing checks at the curb, more perimeter checks before they even get into the airport. Where do we go next? Do the people just--five miles out from the airport? Or is it people coming into the cities, the people coming into a state? At what point do we say enough is enough and really crack down or find a different way to crack down?    Border security to me is a national security issue that has to be done. And I disagree with Mr. Trump wanting to build a wall. I don't think we need that. I think we have the technology, the personnel, and resources that we can do a good job, but it can't be done by itself. It has to be done with enforcement of the laws already on the book. Because right now there is a global policy around the world. People say there is a magnet, it is a global policy of unenforcement of immigration laws, that if you get to this area you get in and you get your pass go card, pass jail free card. It is the lottery for so many people. And they are struggling to do whatever they can to get here and if we can change some things and this is what I would like to hear from you guys.    Mr. Kubiak, you were talking about what you guys are doing on immigration and customs. I visited the Jacksonville Custom and Border Patrol people and they gave me several cases of where people were picked up. They took them back, put them on the plane to Honduras. A week later, they see them on I-10 driving by the same guy that deported them and the guy is smiling at our Custom and Border Patrol agent and it happens over and over again. They had several cases they showed me of convicted felons, whether it was DUIs or whether it was drugs or robbery that were deported, but they are back in this country because there is a revolving door. Plus, we were told there were directives coming out of the DHS and out of the White House and it was called PEP, the Presidential Enforcement Preference, where they are not enforcing or being told to let these people go.    So we can do all the right things and I commend the Custom and Border Patrol agents. They are doing the right thing, but when you have policies that are counter-productive, it is putting American lives at risk. All we have to do is look at the story of Kate Steinle, the young lady that was murdered out in San Francisco in a sanctuary city. We are working on defunding those kinds of cities, but not holding these people accountable and not allowing them back in. And when they are brought back in, they either need to be incarcerated or they need to make sure their host country keeps them in there.    We just saw what happened over the weekend in the Farmington neighborhood up here in Maryland where four people, three of them I think had already been deported one or two times, they are back in this area, causing crimes on American citizens. This is something that until we change, have a paradigm shift in how we deal with this. It is going to continue, and then God forbid that terrorist comes in illegally that should have been stopped, like you brought up in Honduras that didn't make it into Texas, luckily four of them got picked up. Was there one that didn't get picked up?    So they picked the one up, but how many have come through that haven't been picked up?    So what would you do, what would you recommend to us and I heard you, Mr. Bersin, say that until we change how these other countries deal with the people that were picked up and how we can deport them, what needs to change on this end to force those countries to do that? Is it withholding foreign aid? It is changing laws on our books? I would like to hear from both of you on that, what we need to do here to put an end to this because right now I see a revolving door on too many things and it is just a matter of time before somebody comes in and we have a problem.</t>
@@ -592,11 +574,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -616,13 +596,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -644,11 +622,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -668,13 +644,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -696,11 +670,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -720,13 +692,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -748,11 +718,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -772,13 +740,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -800,11 +766,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -824,13 +788,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -852,11 +814,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -876,13 +836,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -904,11 +862,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -928,13 +884,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -954,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -980,13 +932,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1006,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1032,13 +980,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1058,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1084,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1110,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1136,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1162,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1190,11 +1126,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1214,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1240,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1266,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1292,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1318,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>43</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1344,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1370,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1396,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1422,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1448,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1474,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1500,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1526,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1552,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1580,11 +1486,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99553.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99553.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,24 +55,39 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. A quorum being present, the subcommittee will come to order. We have an eight-vote series that will require the subcommittee to recess for about 45 minutes as soon as votes are called. I understand that Assistant Secretary Bersin has a hard stop at 4 o'clock, so we will return immediately after votes to conclude the opening portion of the hearing and to move to a classified setting. Following testimonies and members' questions, we will conclude there and we will conclude our time today.    So I am going to, in the essence of time, skip over my opening statement, but I want to start off with just saying a couple of things. First off, I am deeply saddened by the loss of life in Brussels today at the hands of evil men. I want to dedicate today's hearing to the victims of today's attacks and their families. I led my first congressional delegation trip to Brussels in 2014 to look exactly at foreign fighter flow, foreign fighter threat, and the ways that the U.S. and our European allies could better cooperate on homeland security issues. And only a day before my visit, an ISIS foreign fighter had returned to Brussels and shot up a Jewish museum killing four people before he tried to flee to Africa. So today's depraved acts in Brussels, following the Paris attack, demonstrate again that evil and evil men's intentions continue to rip apart the fabric of free Western societies through acts of terror and fear.    It brings to mind Winston Churchill's words. Let us learn our lessons. Never, never, never believe any war will be smooth and easy. Always remember, however, as sure as you are that you can easily win, that there would not be a war if the other man did not think he also had a chance. So we must show enemies that they have no chance of victory and we do that, in part, through strong defenses and secure borders.    So I want to start the hearing. We are going to jump right in and submit our opening statements for the record. The ranking member agrees with me, so I would just go ahead and recognize Mr. Gonzalez for his opening statement. You are recognized for 5 minutes.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gonzalez. Thank you, Mr. Chairman, Mr. Ranking Member, and distinguished members of the committee. Thank you for the opportunity to testify before you on border security and vulnerabilities in Latin America and the Caribbean. It is an honor to be here with my colleague and friends from the Department of Homeland Security.    First, just to summarize my oral remarks, I wanted to first thank this committee in my capacity as Deputy Assistant Secretary of State for Central America and the Caribbean for its bipartisan support for our strategy in Central America. You allowed us to increase funding for Fiscal Year 2015 and supported the President's Fiscal Year 2016 request for $750 million, providing us with the tools to help these governments make a real difference on the ground. So thank you and I look forward to continue working with you on this.    Now effective border management in Latin America and the Caribbean is vital to our economic prosperity and national security. Throughout the hemisphere, we are working with governments to eliminate trade barriers, integrate electricity grids and energy markets, connect national infrastructures, and cement commercial relationships. As evidence, I offer that our trillion dollar trade relationship and over 3 million American jobs, supported by our economic relationship with Canada and Mexico, demonstrate what is possible when governments collaborate actively.    At the same time that we are using our border cooperation to promote prosperity, we are equally determined to use them to safeguard the homeland and to ensure safe, legal, and orderly migration to the United States. Border security was a focus of the recent Canada state visit. We always share travel information with Canada, including our respective no-fly lists. And the President and Prime Minister Trudeau used their meeting to discuss what more we can do to secure our borders while actively promoting commerce.    We are also working with Mexico on border enforcement at both its northern and southern border to regulate migration, combat smuggling, and target narco-traffickers and our counterterrorism cooperation with Mexico is excellent.    During his fourth visit to Mexico under this administration, Vice President Biden discussed border security with President Pena Nieto as he chaired at the same time the third meeting of the U.S.-Mexico High Level Economic Dialogue.    Border security has also been at the front and center in the Vice President's active engagement on Central America since 2014. During his latest meeting with Northern Triangle leaders here in Washington on February 24th, the three Presidents reaffirmed their commitment to continue awareness campaigns about the risks of undocumented migration, deepening the fight against human smuggling and trafficking, continued regional border security coordination, the strengthening of task forces and development of joint intelligence and border security facilities, and facilitate with the return, repatriation, and especially the reintegration of migrants who do not qualify for humanitarian protection in the United States.    Our efforts in the Caribbean are aimed at combating the drug trade and other transnational criminal threats and work in lock step with the U.S. Coast Guard, the Department of Defense, and Department of Homeland Security to support regional maritime and aerial domain awareness by improving radar coverage and information sharing between partner nations. Caribbean governments are using U.S.-provided equipment and training to identify threats and carry out interdiction operations. And the U.N. Office on Drugs and Crime Container Control Programme is establishing dedicated container profiling units to improve port security.    In South America, the Tri-Border Area of Brazil, Argentina, and Paraguay is a focus for regional law enforcement efforts, as you know from your recent congressional delegation. Governments in the region have long been concerned about arms and drug smuggling, document fraud, money laundering, trafficking in persons, and the manufacture and movement of contraband goods through the Tri-Border Area. We are working with all three governments on their efforts to improve border management and combat smuggling. We brought justice and police officials from Paraguay to regional conferences on money laundering conducted with the Department of Justice.    Mr. Chairman, to conclude, throughout our efforts in the hemisphere, U.S. strategy development and program design has been an active exercise of coordination between the Departments of State, Homeland Security, Justice, Commerce, USAID, and others. Indeed, funding from the Department of State and USAID supports a lot of the work of our partner agencies. At the same time, the expertise and experience of our DHS colleagues, as well as others in the departments and agencies, have helped us refine our approach and we continue to look for ways to maximize our coordination.    And I will close where I began, Mr. Chairman. The U.S. Congress is a vital partner to the administration and we look forward to engaging with you on our discussion today on border security and vulnerabilities in Latin America and the Caribbean. Thank you for holding this important hearing and I look forward to engaging in the discussion.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you so much.    Secretary Bersin.</t>
   </si>
   <si>
+    <t>Bersin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bersin. Mr. Chairman, Ranking Member Sires, Mr. Yoho, thank you for the opportunity to appear before you once again, particularly in the company of my distinguished colleagues, Misters Gonzalez and Kubiak.    I wanted to express our gratitude, certainly mine, for the comments you made with regard to the events in Brussels. I think in retrospect it will be seen in terms of European security and the effect on its borders as a game changer, building on what happened in Paris in January.    I was at a meeting of the European Institute today in which people were reacting to the events in Brussels and I thought it would be useful in the context of the hearing that you and your staff have structured, to offer some comments that I offered there. Because in fact, Europe is in the midst of a confluence of migration, refugees, asylum seekers, and terrorists. And in fact, it has set the European market on its back in the eurozone and the Schengen zone and it is placed them at great risk.    And in looking at the way in which the European nations have reacted to the crisis that they face with respect to border security, we begin to see them shutting down their individual borders, renouncing the Schengen zone, and generally hunkering down in ways that were reminiscent of the way in which we handled border security in the immediate aftermath of 9/11 when we shut down our airports. We shut down our seaports. We actually backed traffic south into Mexico and north into Canada by 10 to 20 miles as we looked at every trunk and we processed every passenger.    And I thought, reflected, for our European colleagues today how different our border security looks. To be sure, we are not seamless and we are not perfect and we are in a mode of continuous improvement as the discussion in the SCIF will undoubtedly focus on some of the issues that we should not take up in public session. But think about the difference in the way in which we handle border security from 15 years ago.    We used to see borders as lines on a map, the line that separated us from Mexico or Canada. And in fact, we now come to see because, in fact, we have learned that homeland security is intrinsically transnational. That is to say there is hardly an event that affects us inside our homeland that does not have a cause or effect that originates outside the homeland.    So we start to look at border security in terms of not just in lines, but in flows. And in the global world that makes a lot of sense in terms of the constant movement of migrants, capital labor, electrons, goods, and people, constantly back and forth across the line.    So we have come to see the fact that our ports of entry, the 327 airports, seaports, and land ports, are not the first line of defense, but rather they are the last line of defense. And what we have to do is secure the flow of goods and people toward the border lines, toward our homeland, as far away from them as possible, and as early in time before the arrival at the border. And we have implemented that as the testimony of my colleagues and I today will again document, but with which the chairman and Ranking Member Yoho are familiar.    The second thing that was pointed out, so that, in fact, don't move away from your--don't just hunker down at your border line, but manage the flows. And think our testimony will show that we do that.    Second is don't fragment your border agencies. I know that in the 1990s there were at each of our ports of entry there were three separate port managers, one from Treasury, for Customs; one for Justice, for Immigration; and one from Agriculture for agricultural inspection. As a result of the creation of DHS, we have actually created an integrated set of missions that will improve over time as the Defense Department has to actually perform a single border security function effectively.    Third, we recognize that you cannot stop everything. We are looking for a needle in a haystack, because in fact, 97, 98 or more percent of the passing of people and goods are perfectly lawful and legitimate. And when we look for the needle in the haystack, we have developed means and methods of doing it, but we recognize that it is based on risk management and making assessments and managing our borders, not seamlessly, but with the data that we have and the intelligence that we can garner.    Lastly, we have learned that we cannot do this alone, that we have to do it in partnership not only inside the government, among the agencies of the United States Government, but also with foreign partners. And a lot of our border security today with regard to migration, as well as drugs, as well as intellectual property protection, as well as counterterrorist activity depends on the partnerships that we have created with our foreign partners.    As Mr. Gonzalez indicated, we have just embarked on a massive effort in partnership with Central America. It will not solve the problem overnight. These problems are in the making over generations, but we have actually taken, and I take it during the course of the hearing, we can explore some of the departures that bode well and work well than the situation we have seen.    With regard to the Caribbean, we have similar efforts of partnership and I hope to be able to take those up, Mr. Chairman, in the course of the questions and answers.    So in conclusion, the challenge of our times is that the future is not what it used to be, as the French poet said. But we have changed the way in which we manage the border and I look forward to answering your questions so we can explore where there have been improvements and where there remains work to be done. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, sir.    Mr. Kubiak.</t>
   </si>
   <si>
+    <t>Kubiak</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kubiak. In the immediate wake of the tragic attacks today in Belgium, I am strengthened by the fact that our international law enforcement collaboration and our effectiveness grows stronger every day. In my more than 20 years as a Federal law enforcement officer, ICE has never had greater capability to partner internationally to protect our nation.    Over 400 ICE personnel are assigned to 62 offices in 46 countries and each year we augment that staff with hundreds of agents and analysts on temporary detail. As today's attacks demonstrate, the threat continues to evolve and challenge our law enforcement response, but I am confident our strong global partnerships build our capability to identify criminals, terrorists, and those networks that support their actions.    As the goal of the hearing is today to address Western Hemisphere affairs, I will focus specifically on that area, but the accomplishments and programs that will be discussed today are representative of our efforts globally.    In the Western Hemisphere, ICE has 23 offices in 9 countries, staffed by about 111 people who work on capacity building and exchange of best practices with our law enforcement counterparts and then operationalize those capabilities through joint investigations covering a full range of ICE's broad investigative authorities and work with our partner nations to repatriate their nationals.    We are, at our core, a border law enforcement agency, and partner with our foreign law enforcement counterparts, Immigration and Customs officers around the world, to investigate transnational criminal organizations operating globally. Thanks to the additional appropriated funds from Congress in Fiscal Year 2015 and continued funding support from the Department of State and the Department of Defense, we have expanded critically important programs like the Transnational Criminal Investigative Units, our Biometric Identification Transnational Migration Alert Program, and the Trade Transparency Units.    We continue to build our capacity and the capacity of our host country counterparts through training programs such as our Cross Border Financial Investigations Program, and our Strategic Trade Control Workshops. We put these programs and training to work through ambitious international and multilateral whole of U.S. Government joint investigative enforcement operations such as Operation Citadel.    ICE's Transnational Criminal Investigative Units investigate all forms of illicit trade, travel, and finance. TCIUs are comprised of foreign law enforcement officials, customs officers, immigration officers, and prosecutors, who undergo a strict vetting process and complete a prerequisite 3-week training course at our Federal law enforcement training center in Glynco, Georgia. Once trained, the TCIU members work collaboratively with our attache personnel to address significant joint law enforcement threats throughout the hemisphere. Through this program, ICE attaches share law enforcement intelligence, conduct joint investigations, and assist in prosecutions of transnational criminal organizations both in the host country and in the United States.    TCIUs are currently operational in nine countries and comprise more than 250 vetted foreign trained law enforcement officers who in 2015 alone, Fiscal Year 2015 alone, disrupted and dismantled criminal organizations through the arrest of almost 700 suspects, the seizure of nearly 17,000 pounds of cocaine, the seizure of more than $6.7 million in illicit cash, and $13 million worth of counterfeit merchandise, not to mention numerous firearms, ammunition, vehicles, and vessels.    One of ICE's highest priorities in the region is investigating human smuggling and trafficking. The Human Smuggling Cell serves as the U.S. Government's coordination center for all human smuggling investigations and through it ICE and CBP together harness DHS's unique access to immigration border and financial data to advance efforts to counter these organizations. The cell provides intelligence coordination and supports U.S. and foreign investigations to more effectively address the specific regional threat.    For the last 4 consecutive years, as an example, ICE led Operation Citadel, a regional, multilateral, and multi-agency effort to address our transnational criminal organization operations, but with the specific focus on human smuggling. This operation coordinated attaches and TCIUs in the region and combined partner national capacity building, training, and real-time intelligence, interdiction and investigative operations at international seaports, airports, land borders, and in the interior of those countries.    In Fiscal Year 2015, Operation Citadel dismantled several large transnational human smuggling organizations. Most significantly, one investigation coordinated collaborative investigations at the same time in Honduras, El Salvador, Guatemala, Mexico, and the United States, dismantling a prolific transnational criminal organization operating throughout Central America and throughout the hemisphere. As a result, 14 separate human smuggling routes were identified and disrupted, including routes used by smugglers to move third country nationals from the Eastern Hemisphere through the Western Hemisphere and into the United States across the southwest border. In total, Citadel's 2015 results included 210 arrests, the recovery of 51 unaccompanied minors, the seizure of $2.1 million in currency, over 2100 biometric collections or enrollments and the initiation of 68 new and on-going investigations.    There is much work still to do and the need to continue to strengthen international partnerships through training and joint operations, but ICE is fully engaged in addressing current and future threats. I am confident that we will continue to build upon this momentum and generate additional considerable operational achievements as we move forward. Thank you for the opportunity to answer your questions.</t>
   </si>
   <si>
@@ -97,6 +115,12 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Sires</t>
+  </si>
+  <si>
+    <t>Albio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Chairman. I just want to say the chairman put together a great codel, which was very informative for me. We certainly learned a lot about especially border crossing in some of these areas that have nothing. They just go back and forth without any kind of scrutiny.    Can you define for me or discuss how the U.S. Government defines special interest aliens? How do you do that?</t>
   </si>
   <si>
@@ -131,6 +155,12 @@
   </si>
   <si>
     <t>412525</t>
+  </si>
+  <si>
+    <t>Yoho</t>
+  </si>
+  <si>
+    <t>Ted</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman, and I appreciate all of you being here. Mr. Bersin, I appreciate the briefing before we went down to South America. It was a great trip. And I thought it was interesting when we were talking about the border security there in the tri-border area how they were telling us how lax it was, but when we met with some of the dignitaries, they said oh, no, we have got good border security. I saw a disconnect there.    I think we are all in agreement that border security is a national security issue. That is something we all take seriously. Obviously, you do, but yet we see the lapses, and I appreciate the work that you guys have done from the 1990s to today, but it is a different game today. Back then, we were worried more about people coming into this country wanting jobs, wanting a better life, wanting opportunity and the drug trafficking. Today, we have got people that want to do us harm and it is like a cake. You only need one drop of kerosene to mess up the whole batter and we can't afford any of that. And certainly we have seen that in what is going on in the European Union with Brussels, with Paris, with these attacks that like you said, is going to shut down our whole economy. It is their 9/11. Can we afford another one? Or do we want another one of those here in the United States?    And you are talking about the control. Before 9/11, we were pretty lax. 9/11 taught us a lesson. Now we have got TSA. Now we are doing checks at the curb, more perimeter checks before they even get into the airport. Where do we go next? Do the people just--five miles out from the airport? Or is it people coming into the cities, the people coming into a state? At what point do we say enough is enough and really crack down or find a different way to crack down?    Border security to me is a national security issue that has to be done. And I disagree with Mr. Trump wanting to build a wall. I don't think we need that. I think we have the technology, the personnel, and resources that we can do a good job, but it can't be done by itself. It has to be done with enforcement of the laws already on the book. Because right now there is a global policy around the world. People say there is a magnet, it is a global policy of unenforcement of immigration laws, that if you get to this area you get in and you get your pass go card, pass jail free card. It is the lottery for so many people. And they are struggling to do whatever they can to get here and if we can change some things and this is what I would like to hear from you guys.    Mr. Kubiak, you were talking about what you guys are doing on immigration and customs. I visited the Jacksonville Custom and Border Patrol people and they gave me several cases of where people were picked up. They took them back, put them on the plane to Honduras. A week later, they see them on I-10 driving by the same guy that deported them and the guy is smiling at our Custom and Border Patrol agent and it happens over and over again. They had several cases they showed me of convicted felons, whether it was DUIs or whether it was drugs or robbery that were deported, but they are back in this country because there is a revolving door. Plus, we were told there were directives coming out of the DHS and out of the White House and it was called PEP, the Presidential Enforcement Preference, where they are not enforcing or being told to let these people go.    So we can do all the right things and I commend the Custom and Border Patrol agents. They are doing the right thing, but when you have policies that are counter-productive, it is putting American lives at risk. All we have to do is look at the story of Kate Steinle, the young lady that was murdered out in San Francisco in a sanctuary city. We are working on defunding those kinds of cities, but not holding these people accountable and not allowing them back in. And when they are brought back in, they either need to be incarcerated or they need to make sure their host country keeps them in there.    We just saw what happened over the weekend in the Farmington neighborhood up here in Maryland where four people, three of them I think had already been deported one or two times, they are back in this area, causing crimes on American citizens. This is something that until we change, have a paradigm shift in how we deal with this. It is going to continue, and then God forbid that terrorist comes in illegally that should have been stopped, like you brought up in Honduras that didn't make it into Texas, luckily four of them got picked up. Was there one that didn't get picked up?    So they picked the one up, but how many have come through that haven't been picked up?    So what would you do, what would you recommend to us and I heard you, Mr. Bersin, say that until we change how these other countries deal with the people that were picked up and how we can deport them, what needs to change on this end to force those countries to do that? Is it withholding foreign aid? It is changing laws on our books? I would like to hear from both of you on that, what we need to do here to put an end to this because right now I see a revolving door on too many things and it is just a matter of time before somebody comes in and we have a problem.</t>
@@ -524,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +562,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,941 +584,1103 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G34" t="s">
+        <v>47</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99553.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99553.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Duncan</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>412186</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sires</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
   </si>
   <si>
     <t>412525</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Yoho</t>
@@ -554,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +574,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,1100 +599,1184 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
